--- a/vertaler/input/SonarDashboardExample.xlsx
+++ b/vertaler/input/SonarDashboardExample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronny/Desktop/UM-Vertaler/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8938DF-3144-DE41-AF4D-D5826961571C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290C0D3C-D7E2-AE4A-B2A7-8119C16EFDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5000" yWindow="-21600" windowWidth="19040" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5000" yWindow="-21100" windowWidth="37120" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="103">
   <si>
     <t>Datum melding</t>
   </si>
@@ -330,6 +330,15 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>Toestemming</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Nee</t>
   </si>
 </sst>
 </file>
@@ -1152,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH597"/>
+  <dimension ref="A1:AI588"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1180,7 +1189,7 @@
     <col min="33" max="33" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1283,8 +1292,11 @@
       <c r="AH1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="AI1" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
@@ -1384,8 +1396,11 @@
       <c r="AH2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="AI2" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44563</v>
       </c>
@@ -1485,8 +1500,11 @@
       <c r="AH3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="AI3" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44564</v>
       </c>
@@ -1586,8 +1604,11 @@
       <c r="AH4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="AI4" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44565</v>
       </c>
@@ -1687,8 +1708,11 @@
       <c r="AH5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="AI5" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44566</v>
       </c>
@@ -1788,8 +1812,11 @@
       <c r="AH6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="AI6" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44567</v>
       </c>
@@ -1889,8 +1916,11 @@
       <c r="AH7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="AI7" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44568</v>
       </c>
@@ -1990,8 +2020,11 @@
       <c r="AH8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="AI8" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44569</v>
       </c>
@@ -1999,7 +2032,7 @@
         <v>44569</v>
       </c>
       <c r="C9" s="7">
-        <v>799890091</v>
+        <v>799890078</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>66</v>
@@ -2091,8 +2124,11 @@
       <c r="AH9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="AI9" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44570</v>
       </c>
@@ -2192,8 +2228,11 @@
       <c r="AH10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="AI10" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44571</v>
       </c>
@@ -2293,8 +2332,11 @@
       <c r="AH11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="AI11" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44572</v>
       </c>
@@ -2394,8 +2436,11 @@
       <c r="AH12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="AI12" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44573</v>
       </c>
@@ -2495,8 +2540,11 @@
       <c r="AH13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="AI13" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44574</v>
       </c>
@@ -2596,8 +2644,11 @@
       <c r="AH14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="AI14" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44575</v>
       </c>
@@ -2697,8 +2748,11 @@
       <c r="AH15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="AI15" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44576</v>
       </c>
@@ -2798,8 +2852,11 @@
       <c r="AH16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="AI16" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44577</v>
       </c>
@@ -2899,8 +2956,11 @@
       <c r="AH17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="AI17" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44578</v>
       </c>
@@ -3000,8 +3060,11 @@
       <c r="AH18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="AI18" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44579</v>
       </c>
@@ -3101,8 +3164,11 @@
       <c r="AH19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="AI19" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44580</v>
       </c>
@@ -3202,8 +3268,11 @@
       <c r="AH20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="AI20" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44581</v>
       </c>
@@ -3303,8 +3372,11 @@
       <c r="AH21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="AI21" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44582</v>
       </c>
@@ -3404,8 +3476,11 @@
       <c r="AH22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="AI22" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44583</v>
       </c>
@@ -3505,8 +3580,11 @@
       <c r="AH23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="AI23" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44584</v>
       </c>
@@ -3606,8 +3684,11 @@
       <c r="AH24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="AI24" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44585</v>
       </c>
@@ -3707,32 +3788,35 @@
       <c r="AH25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AI25" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="L32" s="1"/>
     </row>
@@ -3750,10 +3834,12 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
@@ -3774,6 +3860,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
@@ -3786,12 +3873,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
@@ -3808,6 +3893,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.15">
@@ -3817,6 +3903,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
       <c r="L52" s="1"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
@@ -3845,12 +3932,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
       <c r="L59" s="1"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
       <c r="L60" s="1"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
@@ -3888,6 +3973,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
       <c r="L69" s="1"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
@@ -3901,18 +3987,22 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
       <c r="L72" s="1"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
       <c r="L73" s="1"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
       <c r="L74" s="1"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
       <c r="L75" s="1"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
@@ -3925,7 +4015,6 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
       <c r="L78" s="1"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
@@ -3939,7 +4028,6 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
       <c r="L81" s="1"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.15">
@@ -3949,7 +4037,6 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
       <c r="L83" s="1"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.15">
@@ -3971,7 +4058,6 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
       <c r="L88" s="1"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.15">
@@ -3980,11 +4066,11 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
       <c r="L90" s="1"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
       <c r="L91" s="1"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.15">
@@ -3998,6 +4084,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
       <c r="L94" s="1"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
@@ -4010,10 +4097,12 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
       <c r="L97" s="1"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
       <c r="L98" s="1"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.15">
@@ -4023,6 +4112,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
       <c r="L100" s="1"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.15">
@@ -4031,20 +4121,20 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
       <c r="L102" s="1"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
       <c r="L103" s="1"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
       <c r="L104" s="1"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
       <c r="L105" s="1"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.15">
@@ -4054,21 +4144,19 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
       <c r="L107" s="1"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
       <c r="L108" s="1"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
       <c r="L109" s="1"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
       <c r="L110" s="1"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.15">
@@ -4081,21 +4169,19 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
       <c r="L113" s="1"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
       <c r="L114" s="1"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
       <c r="L115" s="1"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
       <c r="L116" s="1"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.15">
@@ -4108,7 +4194,6 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
       <c r="L119" s="1"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.15">
@@ -4138,6 +4223,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
       <c r="L126" s="1"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.15">
@@ -4150,6 +4236,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
       <c r="L129" s="1"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.15">
@@ -4166,16 +4253,15 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
       <c r="L133" s="1"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
       <c r="L134" s="1"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
       <c r="L135" s="1"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.15">
@@ -4188,11 +4274,11 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
       <c r="L138" s="1"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
       <c r="L139" s="1"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.15">
@@ -4201,6 +4287,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
       <c r="L141" s="1"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.15">
@@ -4230,7 +4317,6 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
       <c r="L148" s="1"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.15">
@@ -4239,12 +4325,10 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
       <c r="L150" s="1"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
       <c r="L151" s="1"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.15">
@@ -4261,6 +4345,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
       <c r="L155" s="1"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.15">
@@ -4277,6 +4362,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
       <c r="L159" s="1"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.15">
@@ -4293,11 +4379,11 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
       <c r="L163" s="1"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
       <c r="L164" s="1"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.15">
@@ -4314,7 +4400,6 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
       <c r="L168" s="1"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.15">
@@ -4323,6 +4408,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
       <c r="L170" s="1"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.15">
@@ -4331,11 +4417,11 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
       <c r="L172" s="1"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
       <c r="L173" s="1"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.15">
@@ -4344,10 +4430,12 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
       <c r="L175" s="1"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
       <c r="L176" s="1"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.15">
@@ -4360,11 +4448,11 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
       <c r="L179" s="1"/>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
       <c r="L180" s="1"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.15">
@@ -4373,7 +4461,6 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
       <c r="L182" s="1"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.15">
@@ -4387,7 +4474,6 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
       <c r="L185" s="1"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.15">
@@ -4404,7 +4490,6 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
       <c r="L189" s="1"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.15">
@@ -4421,7 +4506,6 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
       <c r="L193" s="1"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.15">
@@ -4454,6 +4538,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
       <c r="L201" s="1"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.15">
@@ -4466,6 +4551,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
       <c r="L204" s="1"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.15">
@@ -4486,11 +4572,11 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
       <c r="L209" s="1"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
       <c r="L210" s="1"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.15">
@@ -4499,6 +4585,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
       <c r="L212" s="1"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.15">
@@ -4524,11 +4611,11 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
       <c r="L218" s="1"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
       <c r="L219" s="1"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.15">
@@ -4537,12 +4624,10 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
       <c r="L221" s="1"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
       <c r="L222" s="1"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.15">
@@ -4567,7 +4652,6 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
       <c r="L228" s="1"/>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.15">
@@ -4576,6 +4660,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
       <c r="L230" s="1"/>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.15">
@@ -4612,11 +4697,11 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
       <c r="L239" s="1"/>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
       <c r="L240" s="1"/>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.15">
@@ -4629,6 +4714,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
       <c r="L243" s="1"/>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.15">
@@ -4645,6 +4731,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
       <c r="L247" s="1"/>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.15">
@@ -4653,7 +4740,6 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
       <c r="L249" s="1"/>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.15">
@@ -4666,7 +4752,6 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
       <c r="L252" s="1"/>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.15">
@@ -4683,7 +4768,6 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
       <c r="L256" s="1"/>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.15">
@@ -4692,6 +4776,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
       <c r="L258" s="1"/>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.15">
@@ -4708,6 +4793,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
       <c r="L262" s="1"/>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.15">
@@ -4737,6 +4823,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
       <c r="L269" s="1"/>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.15">
@@ -4750,6 +4837,7 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
       <c r="L272" s="1"/>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.15">
@@ -4766,7 +4854,6 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
       <c r="L276" s="1"/>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.15">
@@ -4775,7 +4862,6 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
       <c r="L278" s="1"/>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.15">
@@ -4784,12 +4870,10 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
       <c r="L280" s="1"/>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A281" s="1"/>
-      <c r="B281" s="1"/>
       <c r="L281" s="1"/>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.15">
@@ -4806,6 +4890,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
       <c r="L285" s="1"/>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.15">
@@ -4830,6 +4915,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
       <c r="L291" s="1"/>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.15">
@@ -4842,11 +4928,11 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A294" s="1"/>
-      <c r="B294" s="1"/>
       <c r="L294" s="1"/>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
       <c r="L295" s="1"/>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.15">
@@ -4867,11 +4953,11 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A300" s="1"/>
-      <c r="B300" s="1"/>
       <c r="L300" s="1"/>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A301" s="1"/>
+      <c r="B301" s="1"/>
       <c r="L301" s="1"/>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.15">
@@ -4901,6 +4987,7 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A308" s="1"/>
+      <c r="B308" s="1"/>
       <c r="L308" s="1"/>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.15">
@@ -4909,11 +4996,11 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A310" s="1"/>
-      <c r="B310" s="1"/>
       <c r="L310" s="1"/>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A311" s="1"/>
+      <c r="B311" s="1"/>
       <c r="L311" s="1"/>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.15">
@@ -4922,7 +5009,6 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A313" s="1"/>
-      <c r="B313" s="1"/>
       <c r="L313" s="1"/>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.15">
@@ -4939,7 +5025,6 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A317" s="1"/>
-      <c r="B317" s="1"/>
       <c r="L317" s="1"/>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.15">
@@ -4948,6 +5033,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A319" s="1"/>
+      <c r="B319" s="1"/>
       <c r="L319" s="1"/>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.15">
@@ -4973,6 +5059,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A325" s="1"/>
+      <c r="B325" s="1"/>
       <c r="L325" s="1"/>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.15">
@@ -4981,6 +5068,7 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A327" s="1"/>
+      <c r="B327" s="1"/>
       <c r="L327" s="1"/>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.15">
@@ -4990,7 +5078,6 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A329" s="1"/>
-      <c r="B329" s="1"/>
       <c r="L329" s="1"/>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.15">
@@ -5007,33 +5094,34 @@
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A333" s="1"/>
+      <c r="B333" s="1"/>
       <c r="L333" s="1"/>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A334" s="1"/>
-      <c r="B334" s="1"/>
       <c r="L334" s="1"/>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A335" s="1"/>
+      <c r="B335" s="1"/>
       <c r="L335" s="1"/>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A336" s="1"/>
-      <c r="B336" s="1"/>
       <c r="L336" s="1"/>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A337" s="1"/>
-      <c r="B337" s="1"/>
       <c r="L337" s="1"/>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A338" s="1"/>
+      <c r="B338" s="1"/>
       <c r="L338" s="1"/>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A339" s="1"/>
+      <c r="B339" s="1"/>
       <c r="L339" s="1"/>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.15">
@@ -5051,11 +5139,11 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A343" s="1"/>
+      <c r="B343" s="1"/>
       <c r="L343" s="1"/>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A344" s="1"/>
-      <c r="B344" s="1"/>
       <c r="L344" s="1"/>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.15">
@@ -5064,6 +5152,7 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A346" s="1"/>
+      <c r="B346" s="1"/>
       <c r="L346" s="1"/>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.15">
@@ -5073,7 +5162,6 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A348" s="1"/>
-      <c r="B348" s="1"/>
       <c r="L348" s="1"/>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.15">
@@ -5104,12 +5192,10 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A355" s="1"/>
-      <c r="B355" s="1"/>
       <c r="L355" s="1"/>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A356" s="1"/>
-      <c r="B356" s="1"/>
       <c r="L356" s="1"/>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.15">
@@ -5126,7 +5212,6 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A360" s="1"/>
-      <c r="B360" s="1"/>
       <c r="L360" s="1"/>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.15">
@@ -5144,10 +5229,12 @@
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A364" s="1"/>
+      <c r="B364" s="1"/>
       <c r="L364" s="1"/>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A365" s="1"/>
+      <c r="B365" s="1"/>
       <c r="L365" s="1"/>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.15">
@@ -5164,11 +5251,11 @@
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A369" s="1"/>
+      <c r="B369" s="1"/>
       <c r="L369" s="1"/>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A370" s="1"/>
-      <c r="B370" s="1"/>
       <c r="L370" s="1"/>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.15">
@@ -5181,12 +5268,10 @@
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A373" s="1"/>
-      <c r="B373" s="1"/>
       <c r="L373" s="1"/>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A374" s="1"/>
-      <c r="B374" s="1"/>
       <c r="L374" s="1"/>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.15">
@@ -5195,15 +5280,16 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A376" s="1"/>
+      <c r="B376" s="1"/>
       <c r="L376" s="1"/>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A377" s="1"/>
+      <c r="B377" s="1"/>
       <c r="L377" s="1"/>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A378" s="1"/>
-      <c r="B378" s="1"/>
       <c r="L378" s="1"/>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.15">
@@ -5266,6 +5352,7 @@
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A393" s="1"/>
+      <c r="B393" s="1"/>
       <c r="L393" s="1"/>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.15">
@@ -5280,10 +5367,12 @@
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A396" s="1"/>
+      <c r="B396" s="1"/>
       <c r="L396" s="1"/>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A397" s="1"/>
+      <c r="B397" s="1"/>
       <c r="L397" s="1"/>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.15">
@@ -5304,31 +5393,27 @@
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A402" s="1"/>
-      <c r="B402" s="1"/>
       <c r="L402" s="1"/>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A403" s="1"/>
-      <c r="B403" s="1"/>
       <c r="L403" s="1"/>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A404" s="1"/>
-      <c r="B404" s="1"/>
       <c r="L404" s="1"/>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A405" s="1"/>
-      <c r="B405" s="1"/>
       <c r="L405" s="1"/>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A406" s="1"/>
-      <c r="B406" s="1"/>
       <c r="L406" s="1"/>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A407" s="1"/>
+      <c r="B407" s="1"/>
       <c r="L407" s="1"/>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.15">
@@ -5345,10 +5430,12 @@
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A411" s="1"/>
+      <c r="B411" s="1"/>
       <c r="L411" s="1"/>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A412" s="1"/>
+      <c r="B412" s="1"/>
       <c r="L412" s="1"/>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.15">
@@ -5365,7 +5452,6 @@
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A416" s="1"/>
-      <c r="B416" s="1"/>
       <c r="L416" s="1"/>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.15">
@@ -5378,6 +5464,7 @@
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A419" s="1"/>
+      <c r="B419" s="1"/>
       <c r="L419" s="1"/>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.15">
@@ -5387,7 +5474,6 @@
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A421" s="1"/>
-      <c r="B421" s="1"/>
       <c r="L421" s="1"/>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.15">
@@ -5416,12 +5502,10 @@
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A428" s="1"/>
-      <c r="B428" s="1"/>
       <c r="L428" s="1"/>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A429" s="1"/>
-      <c r="B429" s="1"/>
       <c r="L429" s="1"/>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.15">
@@ -5434,10 +5518,12 @@
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A432" s="1"/>
+      <c r="B432" s="1"/>
       <c r="L432" s="1"/>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A433" s="1"/>
+      <c r="B433" s="1"/>
       <c r="L433" s="1"/>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.15">
@@ -5450,10 +5536,12 @@
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A436" s="1"/>
+      <c r="B436" s="1"/>
       <c r="L436" s="1"/>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A437" s="1"/>
+      <c r="B437" s="1"/>
       <c r="L437" s="1"/>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.15">
@@ -5462,6 +5550,7 @@
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A439" s="1"/>
+      <c r="B439" s="1"/>
       <c r="L439" s="1"/>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.15">
@@ -5475,11 +5564,11 @@
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A442" s="1"/>
-      <c r="B442" s="1"/>
       <c r="L442" s="1"/>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A443" s="1"/>
+      <c r="B443" s="1"/>
       <c r="L443" s="1"/>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.15">
@@ -5488,12 +5577,10 @@
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A445" s="1"/>
-      <c r="B445" s="1"/>
       <c r="L445" s="1"/>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A446" s="1"/>
-      <c r="B446" s="1"/>
       <c r="L446" s="1"/>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.15">
@@ -5502,16 +5589,15 @@
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A448" s="1"/>
-      <c r="B448" s="1"/>
       <c r="L448" s="1"/>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A449" s="1"/>
+      <c r="B449" s="1"/>
       <c r="L449" s="1"/>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A450" s="1"/>
-      <c r="B450" s="1"/>
       <c r="L450" s="1"/>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.15">
@@ -5537,6 +5623,7 @@
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A456" s="1"/>
+      <c r="B456" s="1"/>
       <c r="L456" s="1"/>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.15">
@@ -5545,11 +5632,11 @@
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A458" s="1"/>
-      <c r="B458" s="1"/>
       <c r="L458" s="1"/>
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A459" s="1"/>
+      <c r="B459" s="1"/>
       <c r="L459" s="1"/>
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.15">
@@ -5558,11 +5645,11 @@
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A461" s="1"/>
-      <c r="B461" s="1"/>
       <c r="L461" s="1"/>
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A462" s="1"/>
+      <c r="B462" s="1"/>
       <c r="L462" s="1"/>
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.15">
@@ -5580,6 +5667,7 @@
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A466" s="1"/>
+      <c r="B466" s="1"/>
       <c r="L466" s="1"/>
     </row>
     <row r="467" spans="1:12" x14ac:dyDescent="0.15">
@@ -5588,7 +5676,6 @@
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A468" s="1"/>
-      <c r="B468" s="1"/>
       <c r="L468" s="1"/>
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.15">
@@ -5601,7 +5688,6 @@
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A471" s="1"/>
-      <c r="B471" s="1"/>
       <c r="L471" s="1"/>
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.15">
@@ -5614,12 +5700,10 @@
     </row>
     <row r="474" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A474" s="1"/>
-      <c r="B474" s="1"/>
       <c r="L474" s="1"/>
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A475" s="1"/>
-      <c r="B475" s="1"/>
       <c r="L475" s="1"/>
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.15">
@@ -5636,6 +5720,7 @@
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A479" s="1"/>
+      <c r="B479" s="1"/>
       <c r="L479" s="1"/>
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.15">
@@ -5652,10 +5737,12 @@
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A483" s="1"/>
+      <c r="B483" s="1"/>
       <c r="L483" s="1"/>
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A484" s="1"/>
+      <c r="B484" s="1"/>
       <c r="L484" s="1"/>
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.15">
@@ -5672,11 +5759,11 @@
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A488" s="1"/>
-      <c r="B488" s="1"/>
       <c r="L488" s="1"/>
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A489" s="1"/>
+      <c r="B489" s="1"/>
       <c r="L489" s="1"/>
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.15">
@@ -5689,12 +5776,10 @@
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A492" s="1"/>
-      <c r="B492" s="1"/>
       <c r="L492" s="1"/>
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A493" s="1"/>
-      <c r="B493" s="1"/>
       <c r="L493" s="1"/>
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.15">
@@ -5736,6 +5821,7 @@
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A503" s="1"/>
+      <c r="B503" s="1"/>
       <c r="L503" s="1"/>
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.15">
@@ -5752,11 +5838,11 @@
     </row>
     <row r="507" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A507" s="1"/>
-      <c r="B507" s="1"/>
       <c r="L507" s="1"/>
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A508" s="1"/>
+      <c r="B508" s="1"/>
       <c r="L508" s="1"/>
     </row>
     <row r="509" spans="1:12" x14ac:dyDescent="0.15">
@@ -5769,11 +5855,11 @@
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A511" s="1"/>
+      <c r="B511" s="1"/>
       <c r="L511" s="1"/>
     </row>
     <row r="512" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A512" s="1"/>
-      <c r="B512" s="1"/>
       <c r="L512" s="1"/>
     </row>
     <row r="513" spans="1:12" x14ac:dyDescent="0.15">
@@ -5794,7 +5880,6 @@
     </row>
     <row r="517" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A517" s="1"/>
-      <c r="B517" s="1"/>
       <c r="L517" s="1"/>
     </row>
     <row r="518" spans="1:12" x14ac:dyDescent="0.15">
@@ -5807,7 +5892,6 @@
     </row>
     <row r="520" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A520" s="1"/>
-      <c r="B520" s="1"/>
       <c r="L520" s="1"/>
     </row>
     <row r="521" spans="1:12" x14ac:dyDescent="0.15">
@@ -5820,6 +5904,7 @@
     </row>
     <row r="523" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A523" s="1"/>
+      <c r="B523" s="1"/>
       <c r="L523" s="1"/>
     </row>
     <row r="524" spans="1:12" x14ac:dyDescent="0.15">
@@ -5828,10 +5913,12 @@
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A525" s="1"/>
+      <c r="B525" s="1"/>
       <c r="L525" s="1"/>
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A526" s="1"/>
+      <c r="B526" s="1"/>
       <c r="L526" s="1"/>
     </row>
     <row r="527" spans="1:12" x14ac:dyDescent="0.15">
@@ -5856,7 +5943,6 @@
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A532" s="1"/>
-      <c r="B532" s="1"/>
       <c r="L532" s="1"/>
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.15">
@@ -5865,12 +5951,10 @@
     </row>
     <row r="534" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A534" s="1"/>
-      <c r="B534" s="1"/>
       <c r="L534" s="1"/>
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A535" s="1"/>
-      <c r="B535" s="1"/>
       <c r="L535" s="1"/>
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.15">
@@ -5879,10 +5963,12 @@
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A537" s="1"/>
+      <c r="B537" s="1"/>
       <c r="L537" s="1"/>
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A538" s="1"/>
+      <c r="B538" s="1"/>
       <c r="L538" s="1"/>
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.15">
@@ -5915,16 +6001,15 @@
     </row>
     <row r="546" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A546" s="1"/>
-      <c r="B546" s="1"/>
       <c r="L546" s="1"/>
     </row>
     <row r="547" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A547" s="1"/>
-      <c r="B547" s="1"/>
       <c r="L547" s="1"/>
     </row>
     <row r="548" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A548" s="1"/>
+      <c r="B548" s="1"/>
       <c r="L548" s="1"/>
     </row>
     <row r="549" spans="1:12" x14ac:dyDescent="0.15">
@@ -5945,6 +6030,7 @@
     </row>
     <row r="553" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A553" s="1"/>
+      <c r="B553" s="1"/>
       <c r="L553" s="1"/>
     </row>
     <row r="554" spans="1:12" x14ac:dyDescent="0.15">
@@ -5957,11 +6043,11 @@
     </row>
     <row r="556" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A556" s="1"/>
+      <c r="B556" s="1"/>
       <c r="L556" s="1"/>
     </row>
     <row r="557" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A557" s="1"/>
-      <c r="B557" s="1"/>
       <c r="L557" s="1"/>
     </row>
     <row r="558" spans="1:12" x14ac:dyDescent="0.15">
@@ -5982,7 +6068,6 @@
     </row>
     <row r="562" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A562" s="1"/>
-      <c r="B562" s="1"/>
       <c r="L562" s="1"/>
     </row>
     <row r="563" spans="1:12" x14ac:dyDescent="0.15">
@@ -5991,11 +6076,11 @@
     </row>
     <row r="564" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A564" s="1"/>
+      <c r="B564" s="1"/>
       <c r="L564" s="1"/>
     </row>
     <row r="565" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A565" s="1"/>
-      <c r="B565" s="1"/>
       <c r="L565" s="1"/>
     </row>
     <row r="566" spans="1:12" x14ac:dyDescent="0.15">
@@ -6008,6 +6093,7 @@
     </row>
     <row r="568" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A568" s="1"/>
+      <c r="B568" s="1"/>
       <c r="L568" s="1"/>
     </row>
     <row r="569" spans="1:12" x14ac:dyDescent="0.15">
@@ -6024,11 +6110,11 @@
     </row>
     <row r="572" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A572" s="1"/>
+      <c r="B572" s="1"/>
       <c r="L572" s="1"/>
     </row>
     <row r="573" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A573" s="1"/>
-      <c r="B573" s="1"/>
       <c r="L573" s="1"/>
     </row>
     <row r="574" spans="1:12" x14ac:dyDescent="0.15">
@@ -6041,15 +6127,16 @@
     </row>
     <row r="576" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A576" s="1"/>
+      <c r="B576" s="1"/>
       <c r="L576" s="1"/>
     </row>
     <row r="577" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A577" s="1"/>
-      <c r="B577" s="1"/>
       <c r="L577" s="1"/>
     </row>
     <row r="578" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A578" s="1"/>
+      <c r="B578" s="1"/>
       <c r="L578" s="1"/>
     </row>
     <row r="579" spans="1:12" x14ac:dyDescent="0.15">
@@ -6062,7 +6149,6 @@
     </row>
     <row r="581" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A581" s="1"/>
-      <c r="B581" s="1"/>
       <c r="L581" s="1"/>
     </row>
     <row r="582" spans="1:12" x14ac:dyDescent="0.15">
@@ -6071,6 +6157,7 @@
     </row>
     <row r="583" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A583" s="1"/>
+      <c r="B583" s="1"/>
       <c r="L583" s="1"/>
     </row>
     <row r="584" spans="1:12" x14ac:dyDescent="0.15">
@@ -6079,11 +6166,11 @@
     </row>
     <row r="585" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A585" s="1"/>
-      <c r="B585" s="1"/>
       <c r="L585" s="1"/>
     </row>
     <row r="586" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A586" s="1"/>
+      <c r="B586" s="1"/>
       <c r="L586" s="1"/>
     </row>
     <row r="587" spans="1:12" x14ac:dyDescent="0.15">
@@ -6093,47 +6180,8 @@
     </row>
     <row r="588" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A588" s="1"/>
+      <c r="B588" s="1"/>
       <c r="L588" s="1"/>
-    </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A589" s="1"/>
-      <c r="L589" s="1"/>
-    </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A590" s="1"/>
-      <c r="L590" s="1"/>
-    </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A591" s="1"/>
-      <c r="L591" s="1"/>
-    </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A592" s="1"/>
-      <c r="B592" s="1"/>
-      <c r="L592" s="1"/>
-    </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A593" s="1"/>
-      <c r="L593" s="1"/>
-    </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A594" s="1"/>
-      <c r="L594" s="1"/>
-    </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A595" s="1"/>
-      <c r="B595" s="1"/>
-      <c r="L595" s="1"/>
-    </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A596" s="1"/>
-      <c r="B596" s="1"/>
-      <c r="L596" s="1"/>
-    </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A597" s="1"/>
-      <c r="B597" s="1"/>
-      <c r="L597" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
